--- a/CE/day_of_month.xlsx
+++ b/CE/day_of_month.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebjus/SynologyDrive/DS/SkillFactory/CE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D33C7EC-FA08-6E41-9E26-AA2A81A2DBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536EFF1-362C-1740-B8C1-200D30A0C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>месяц</t>
-  </si>
-  <si>
     <t>2021-01</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>2022-11</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -504,15 +504,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3180A-0DA9-2448-A74C-A29289F62F4E}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -520,7 +518,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -528,7 +526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -536,7 +534,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -544,7 +542,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -552,7 +550,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -560,7 +558,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -568,7 +566,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -576,7 +574,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -584,7 +582,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -592,7 +590,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -600,7 +598,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -608,7 +606,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -616,7 +614,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -624,7 +622,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -632,7 +630,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -640,7 +638,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>22</v>
@@ -648,7 +646,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>19</v>
@@ -656,7 +654,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -664,7 +662,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -672,7 +670,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>22</v>
@@ -680,7 +678,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -688,7 +686,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -696,7 +694,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -704,7 +702,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>22</v>
